--- a/5- • Sample Size Calculator with Excel.xlsx
+++ b/5- • Sample Size Calculator with Excel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Wavhal\Desktop\Tops\Stat using Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10985F1-2E42-4220-8E5C-2805CF69567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC64AD4-E2E8-4E69-82F0-ECB3F25FEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A894786E-6FB3-4658-BFC2-4F710F06C783}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{A894786E-6FB3-4658-BFC2-4F710F06C783}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
     <sheet name="Solution" sheetId="2" r:id="rId2"/>
+    <sheet name="Practice" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Sample Size =</t>
   </si>
@@ -133,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +162,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,20 +328,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,58 +348,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,6 +653,133 @@
         <a:xfrm>
           <a:off x="4268047" y="1990513"/>
           <a:ext cx="2010833" cy="1600656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>458439</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Sample Size Calculator: Understanding Sample Sizes | SurveyMonkey">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D9C9B6-9468-491E-8061-B00D2CC51C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4251960" y="121920"/>
+          <a:ext cx="3643599" cy="1835573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77047</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>150087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Practice Problems for Z-Scores">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E926B56A-8DDB-4A5C-8CA2-3A1BCC47A29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5121487" y="2097193"/>
+          <a:ext cx="1490133" cy="1535234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45499395-230E-4B9D-A4FB-11214E44B101}">
   <dimension ref="B3:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,13 +1118,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1032,44 +1150,41 @@
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="I13" s="8" t="s">
+      <c r="D13" s="4"/>
+      <c r="I13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="I15" s="15" t="s">
+      <c r="D15" s="4"/>
+      <c r="I15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="24" t="s">
         <v>22</v>
       </c>
       <c r="M15" t="s">
@@ -1077,57 +1192,56 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="D16" s="4"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="19">
+      <c r="C18" s="23"/>
+      <c r="D18" s="11">
         <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="12"/>
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -1155,201 +1269,365 @@
   <dimension ref="B3:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="21.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="7" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="18.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="50" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="21.77734375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="18.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="50" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="18">
         <v>1.9599639845400536</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <f>1-D18</f>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>0.5</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <f>L13/2</f>
         <v>2.5000000000000022E-2</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>0.04</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <f>_xlfn.NORM.S.INV(1-L14)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>2400</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="26">
+      <c r="C18" s="23"/>
+      <c r="D18" s="15">
         <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="17">
         <f>E25/E26</f>
         <v>480.14587098609917</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <f>((D13*D13)*(D14*(1-D14)))/(D15*D15)</f>
         <v>600.22794073345676</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="16">
         <f>1+((D13*D13)*(D14*(1-D14)))/((D15*D15)*D16)</f>
         <v>1.250094975305607</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G19:H24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B9E8C-17B4-44E1-8236-DB460EBF430A}">
+  <dimension ref="B3:M26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="49.109375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="5" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:13" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="I13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="I15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="18" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
